--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/30.xlsx
@@ -479,10 +479,10 @@
         <v>-0.3949779984573875</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.945932888977872</v>
+        <v>-1.94456482391669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1320287247007067</v>
+        <v>0.1314972671956159</v>
       </c>
       <c r="G2" t="n">
         <v>-0.1480990221172181</v>
@@ -502,13 +502,13 @@
         <v>-0.4221723930840006</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.088976720540379</v>
+        <v>-2.087589674854016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0687706811139964</v>
+        <v>0.06827718485926926</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1205639751707709</v>
+        <v>-0.12075524147068</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4659154246913966</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.301376486541276</v>
+        <v>-2.299550696403595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05595145887581802</v>
+        <v>0.05526085612881821</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1437743596719465</v>
+        <v>-0.143799180489492</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.5099873431623444</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.471061085594549</v>
+        <v>-2.469099510984413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001418662680378125</v>
+        <v>0.001231776524741811</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1691996371270306</v>
+        <v>-0.1693003804453033</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.5425144530239256</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.541939120167712</v>
+        <v>-2.539894322816394</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07376651376096532</v>
+        <v>-0.07361174866332901</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1720043895096662</v>
+        <v>-0.1722131763866662</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5556427477387345</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.340962040406038</v>
+        <v>-2.339465491112857</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1265049108526784</v>
+        <v>-0.1257486059415877</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1477500706234909</v>
+        <v>-0.1479909785584909</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5483416517963351</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.033792742896394</v>
+        <v>-2.032103467255212</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1772196812903921</v>
+        <v>-0.1760122215192106</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1161619301766812</v>
+        <v>-0.1164013780635902</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5156746346354784</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.680550897854079</v>
+        <v>-1.678686416441989</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1070512300894109</v>
+        <v>-0.106042336858593</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07333579957414725</v>
+        <v>-0.07340150173823815</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4508087659478022</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.24965566507274</v>
+        <v>-1.247446612311196</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008375791833558074</v>
+        <v>0.008708682798285258</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01050116993380049</v>
+        <v>-0.01056103190552775</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3421772885849227</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9376068868432789</v>
+        <v>-0.9347597930660069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07452327059217667</v>
+        <v>0.07439624640826761</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01600555123652629</v>
+        <v>-0.01591940839916267</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1854622157138993</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5742184375931946</v>
+        <v>-0.5707610437139228</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1469708568630663</v>
+        <v>0.1464101983961574</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02232463937397914</v>
+        <v>-0.02196838763979742</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01522982232617956</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.131629679651768</v>
+        <v>-0.1272057339363146</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01105205998419372</v>
+        <v>0.01063886637446656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04643924556354785</v>
+        <v>0.04674731571072959</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2409102194541362</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3210100493474741</v>
+        <v>0.3260413750687455</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1623578517730324</v>
+        <v>-0.162556418313396</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1138233850551661</v>
+        <v>0.114464346167075</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.46159906892641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8656503286510552</v>
+        <v>0.8707298359593265</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1796827824197551</v>
+        <v>-0.1807690581993911</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1954838747796896</v>
+        <v>0.1960605937755986</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6595558412210669</v>
       </c>
       <c r="E16" t="n">
-        <v>1.566229584256049</v>
+        <v>1.570914878579775</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5139447323043017</v>
+        <v>-0.5150558289014832</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2607932859341267</v>
+        <v>0.2613860654590356</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8451881744003198</v>
       </c>
       <c r="E17" t="n">
-        <v>2.272526388185041</v>
+        <v>2.276633503464767</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6804048151488025</v>
+        <v>-0.6820342288182565</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3708239701130971</v>
+        <v>0.3715423137738242</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.038055269893517</v>
       </c>
       <c r="E18" t="n">
-        <v>3.0369973482482</v>
+        <v>3.04027661626038</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9591192354147275</v>
+        <v>-0.9608917337970907</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4816679010787037</v>
+        <v>0.4824577870958853</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.243046084357663</v>
       </c>
       <c r="E19" t="n">
-        <v>3.667165784669121</v>
+        <v>3.669649326471757</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.199321967186754</v>
+        <v>-1.201187908646935</v>
       </c>
       <c r="G19" t="n">
-        <v>0.601806498191035</v>
+        <v>0.6028168514699439</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.450684882906764</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330385329723943</v>
+        <v>4.331696452909579</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.459781406172048</v>
+        <v>-1.461651727776502</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7132256881044597</v>
+        <v>0.7145265909534594</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.645048910623372</v>
       </c>
       <c r="E21" t="n">
-        <v>4.855022950182075</v>
+        <v>4.855890218748074</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.733121389415338</v>
+        <v>-1.734518655438338</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8611971819737836</v>
+        <v>0.8624338427067832</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.819730245817351</v>
       </c>
       <c r="E22" t="n">
-        <v>5.375109600740844</v>
+        <v>5.375276046223208</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.952964480583688</v>
+        <v>-1.954507021391733</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9478086947745785</v>
+        <v>0.9492687428654872</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.970660059148676</v>
       </c>
       <c r="E23" t="n">
-        <v>5.722935397389933</v>
+        <v>5.722255014979569</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.202871421991939</v>
+        <v>-2.203708759572075</v>
       </c>
       <c r="G23" t="n">
-        <v>1.057281640582822</v>
+        <v>1.058892073627094</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.094945275922854</v>
       </c>
       <c r="E24" t="n">
-        <v>6.147372837465182</v>
+        <v>6.145833946777365</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.433249490160241</v>
+        <v>-2.43352105910515</v>
       </c>
       <c r="G24" t="n">
-        <v>1.17813858135588</v>
+        <v>1.179405903098789</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.186969853658787</v>
       </c>
       <c r="E25" t="n">
-        <v>6.43904080439365</v>
+        <v>6.436547042254378</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.557109749856298</v>
+        <v>-2.557629526976662</v>
       </c>
       <c r="G25" t="n">
-        <v>1.252141118843588</v>
+        <v>1.253439101596405</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.243137708175609</v>
       </c>
       <c r="E26" t="n">
-        <v>6.605055572570423</v>
+        <v>6.601628839701061</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605708910610285</v>
+        <v>-2.606413383814149</v>
       </c>
       <c r="G26" t="n">
-        <v>1.316256210659661</v>
+        <v>1.31723444288057</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.262547553397249</v>
       </c>
       <c r="E27" t="n">
-        <v>6.710224296606667</v>
+        <v>6.706537675177123</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.69061654728899</v>
+        <v>-2.690848694935444</v>
       </c>
       <c r="G27" t="n">
-        <v>1.326628392297477</v>
+        <v>1.327900094184658</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.245803892999003</v>
       </c>
       <c r="E28" t="n">
-        <v>6.895111646406527</v>
+        <v>6.890287647514165</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717247094443119</v>
+        <v>-2.717671238413528</v>
       </c>
       <c r="G28" t="n">
-        <v>1.36657676811283</v>
+        <v>1.367791528124466</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.1935482299347</v>
       </c>
       <c r="E29" t="n">
-        <v>6.859410550487627</v>
+        <v>6.854360244141175</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738752142774113</v>
+        <v>-2.739031741983522</v>
       </c>
       <c r="G29" t="n">
-        <v>1.352498984420288</v>
+        <v>1.35375608582656</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.108806799678483</v>
       </c>
       <c r="E30" t="n">
-        <v>6.795207855786099</v>
+        <v>6.789767716599373</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.64057558904523</v>
+        <v>-2.641278602201003</v>
       </c>
       <c r="G30" t="n">
-        <v>1.335803334500747</v>
+        <v>1.33714073855202</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.997522759461807</v>
       </c>
       <c r="E31" t="n">
-        <v>6.820282721699365</v>
+        <v>6.813659943559004</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.540816343185803</v>
+        <v>-2.541762454348712</v>
       </c>
       <c r="G31" t="n">
-        <v>1.297576355384576</v>
+        <v>1.298858277608393</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.868171103109902</v>
       </c>
       <c r="E32" t="n">
-        <v>6.780239442758103</v>
+        <v>6.772777136965469</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.406642303775566</v>
+        <v>-2.40780596210402</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251460736433224</v>
+        <v>1.252560152645678</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.729669648929889</v>
       </c>
       <c r="E33" t="n">
-        <v>6.614154592272966</v>
+        <v>6.606398816814059</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.372401255947576</v>
+        <v>-2.373310135884166</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193368342992149</v>
+        <v>1.194489659925967</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.58967962276933</v>
       </c>
       <c r="E34" t="n">
-        <v>6.315745583308773</v>
+        <v>6.308408841651957</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.334761946187994</v>
+        <v>-2.335820481053903</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143630344727253</v>
+        <v>1.144747281516798</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.455670567943046</v>
       </c>
       <c r="E35" t="n">
-        <v>6.120142940569735</v>
+        <v>6.112420746216919</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297466477753823</v>
+        <v>-2.298269504203823</v>
       </c>
       <c r="G35" t="n">
-        <v>1.08353330525736</v>
+        <v>1.084371372861542</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.333378458158509</v>
       </c>
       <c r="E36" t="n">
-        <v>5.923097770316879</v>
+        <v>5.915263152261063</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.233195890816067</v>
+        <v>-2.234258075802203</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062096879186639</v>
+        <v>1.06251737303682</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.2235286246445</v>
       </c>
       <c r="E37" t="n">
-        <v>5.616855603344961</v>
+        <v>5.60949550091869</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189020675777534</v>
+        <v>-2.18985801335767</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9566580462535762</v>
+        <v>0.9572566659708487</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.12610741644167</v>
       </c>
       <c r="E38" t="n">
-        <v>5.310585695459316</v>
+        <v>5.303108789185773</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.142631297809137</v>
+        <v>-2.143450384788137</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8830891430488687</v>
+        <v>0.8836527216119594</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.03737385861026</v>
       </c>
       <c r="E39" t="n">
-        <v>4.996427147738491</v>
+        <v>4.988788176126858</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.083995766478244</v>
+        <v>-2.084589276027198</v>
       </c>
       <c r="G39" t="n">
-        <v>0.802244820207163</v>
+        <v>0.8028974617037993</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9558212720498914</v>
       </c>
       <c r="E40" t="n">
-        <v>4.705519865865388</v>
+        <v>4.697657506895844</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104441549919284</v>
+        <v>-2.104490461530329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7619942144369921</v>
+        <v>0.7623636066039919</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8779050156903726</v>
       </c>
       <c r="E41" t="n">
-        <v>4.384125319806019</v>
+        <v>4.376689294879021</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998994686721721</v>
+        <v>-1.999281586171585</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6823909324725589</v>
+        <v>0.6828566878135588</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8028077505011478</v>
       </c>
       <c r="E42" t="n">
-        <v>4.005321682812121</v>
+        <v>3.998367473755123</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908664431433382</v>
+        <v>-1.909097335692336</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6033366285903075</v>
+        <v>0.6037585824885801</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7284096397250193</v>
       </c>
       <c r="E43" t="n">
-        <v>3.703528282373202</v>
+        <v>3.696877763319113</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856036997996578</v>
+        <v>-1.856473552375759</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5630801826277727</v>
+        <v>0.5635313374878635</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6559082946824822</v>
       </c>
       <c r="E44" t="n">
-        <v>3.401291027314647</v>
+        <v>3.395087282976376</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760995167518876</v>
+        <v>-1.761422961609512</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5143452374013313</v>
+        <v>0.5145365037012404</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5851826205797993</v>
       </c>
       <c r="E45" t="n">
-        <v>3.118708939655905</v>
+        <v>3.112779684358725</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678391486727625</v>
+        <v>-1.678788619808353</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4191793028359023</v>
+        <v>0.4195618354357204</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5172250482857055</v>
       </c>
       <c r="E46" t="n">
-        <v>2.823535397261166</v>
+        <v>2.817830989369985</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600303734681555</v>
+        <v>-1.600673126848555</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3812574737707307</v>
+        <v>0.3816254058896397</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4513429532213967</v>
       </c>
       <c r="E47" t="n">
-        <v>2.493135274577073</v>
+        <v>2.487898082074983</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478414539908224</v>
+        <v>-1.479056961068224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3175614157567478</v>
+        <v>0.3178986868657477</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3882100232389325</v>
       </c>
       <c r="E48" t="n">
-        <v>2.199496242725879</v>
+        <v>2.194786127584607</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.374003580831162</v>
+        <v>-1.374759885742252</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2896452962585734</v>
+        <v>0.2897577199615734</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3294194360077227</v>
       </c>
       <c r="E49" t="n">
-        <v>1.9182369586375</v>
+        <v>1.914068521337955</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.287038736392367</v>
+        <v>-1.288117711931548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2355797154522243</v>
+        <v>0.2356760786262243</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2756068556376128</v>
       </c>
       <c r="E50" t="n">
-        <v>1.784229364709627</v>
+        <v>1.780012745823082</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.16509259974349</v>
+        <v>-1.166370141823036</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1973906975864164</v>
+        <v>0.1972826540276892</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2262499642302593</v>
       </c>
       <c r="E51" t="n">
-        <v>1.508089009227974</v>
+        <v>1.504478310299156</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.089041614784238</v>
+        <v>-1.090495822682783</v>
       </c>
       <c r="G51" t="n">
-        <v>0.166709247004061</v>
+        <v>0.1665063003194247</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1810965845115064</v>
       </c>
       <c r="E52" t="n">
-        <v>1.348524733516835</v>
+        <v>1.345194363821472</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.006354711251806</v>
+        <v>-1.007750517226714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1440682812583398</v>
+        <v>0.1440098793347035</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1400321548208283</v>
       </c>
       <c r="E53" t="n">
-        <v>1.1053201428699</v>
+        <v>1.10233142442781</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.932679224536462</v>
+        <v>-0.9342005946471889</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1005500878607151</v>
+        <v>0.1004274438210788</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1017242207423188</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9600015563817571</v>
+        <v>0.9570653996709397</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9400291066260964</v>
+        <v>-0.9414146922643687</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04981049660545604</v>
+        <v>0.04963821093072882</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.06569966944328987</v>
       </c>
       <c r="E55" t="n">
-        <v>0.798632661230255</v>
+        <v>0.7958863107712557</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8939251680594724</v>
+        <v>-0.8954859594686537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.021873936434009</v>
+        <v>0.02186371609737264</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03166469752891728</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6518131453046581</v>
+        <v>0.6496172329759313</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8442879131128493</v>
+        <v>-0.8459144066861216</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0154803858439198</v>
+        <v>0.01538986286228346</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.812489888668407e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5082028150828785</v>
+        <v>0.5060580044373335</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8118441844847671</v>
+        <v>-0.8137305666182212</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01240215254816362</v>
+        <v>-0.01257005807861812</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03149459523866917</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3978596806124535</v>
+        <v>0.3959207367477268</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8064201058270413</v>
+        <v>-0.8082510061330408</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02785384149425038</v>
+        <v>-0.0278567615904322</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06259739173374078</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2521352007550381</v>
+        <v>0.2503262011704022</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.741706394293695</v>
+        <v>-0.7436059168599672</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09342022111268732</v>
+        <v>-0.09332531798677825</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09366844390701198</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1918074736867816</v>
+        <v>0.1902539825180547</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7247201948040632</v>
+        <v>-0.7265846762161536</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08062289959587257</v>
+        <v>-0.08069590200041801</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1241590989184078</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03370324606655127</v>
+        <v>0.03223589773518803</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6971369662706162</v>
+        <v>-0.6989707866727974</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1370887994636756</v>
+        <v>-0.1370464580690392</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1532940908287736</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05336818188287989</v>
+        <v>-0.05480048906006132</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7155992743801566</v>
+        <v>-0.7175236177639743</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1689601892401216</v>
+        <v>-0.1691003538568488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1816871102472163</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1470463274436729</v>
+        <v>-0.1483589106773998</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7494446491755111</v>
+        <v>-0.7512565688563289</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1842498128481175</v>
+        <v>-0.1844147982823902</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.209161302144195</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.259769340302279</v>
+        <v>-0.2611739065657332</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.752325324058874</v>
+        <v>-0.7541620645572372</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2174381660025631</v>
+        <v>-0.2175535098017449</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2362903101009805</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4126582761417834</v>
+        <v>-0.4138131741816922</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7333023574824246</v>
+        <v>-0.7354077468295149</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2379562218241031</v>
+        <v>-0.2381226673064666</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2629648919442828</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4365855442555951</v>
+        <v>-0.4382164179731402</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7638129824381437</v>
+        <v>-0.7657490062066886</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2532604459130081</v>
+        <v>-0.2535378550502807</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2894901500246718</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5233970836448446</v>
+        <v>-0.5247388678403897</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8043541377784055</v>
+        <v>-0.8063310428934959</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2681222754303677</v>
+        <v>-0.2684945876935494</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3158524385927188</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5562116644880176</v>
+        <v>-0.5579257609467444</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7522435613657832</v>
+        <v>-0.7544759748967825</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3198532393393538</v>
+        <v>-0.3200956073224446</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.341983391708395</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6369056023763595</v>
+        <v>-0.6386080184503591</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7983577202690435</v>
+        <v>-0.8005142112993157</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.317851513406718</v>
+        <v>-0.3182252857179906</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3671539793260402</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7467231195340573</v>
+        <v>-0.7482824508951479</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7944360310968627</v>
+        <v>-0.7969779748231348</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3579969957143436</v>
+        <v>-0.3582408237455253</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3904585468886534</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7747691833123226</v>
+        <v>-0.7763810764046858</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9239145558467371</v>
+        <v>-0.9260228652900092</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4029956778761496</v>
+        <v>-0.403005898212786</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4113757290151073</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8171996408822202</v>
+        <v>-0.8186567688769472</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9904679279746282</v>
+        <v>-0.9925747773698095</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4203264487152359</v>
+        <v>-0.420373170254145</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4296976788775159</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8691890333032972</v>
+        <v>-0.8703030499966605</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.025344096722164</v>
+        <v>-1.027290340827346</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4536637267749542</v>
+        <v>-0.4536111650436815</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4454939293966094</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.811845644532858</v>
+        <v>-0.812853077715585</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.050216015950794</v>
+        <v>-1.052236722508612</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4681444837405867</v>
+        <v>-0.4681211229711322</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.458694367335052</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7961983091425895</v>
+        <v>-0.7969619142941348</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.116340133939958</v>
+        <v>-1.118060070591049</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4568364112764988</v>
+        <v>-0.4567721691604988</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4690396689960144</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7131230328179755</v>
+        <v>-0.713785894651248</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.159360450938583</v>
+        <v>-1.160941683021037</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4594761782248618</v>
+        <v>-0.4595141394752254</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4759456968104437</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5613904550664708</v>
+        <v>-0.5624446097881068</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.143253200399678</v>
+        <v>-1.145073880369041</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4402750857813215</v>
+        <v>-0.4400429381348669</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4786032527061152</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4221880100311445</v>
+        <v>-0.4234363511488714</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.168072557897035</v>
+        <v>-1.169706351710762</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4531687704721362</v>
+        <v>-0.4527468165738636</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4763561319061955</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3192195784678994</v>
+        <v>-0.3204270382390809</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.250661638207377</v>
+        <v>-1.251940640335013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3964838633906969</v>
+        <v>-0.3962663162251515</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4673131786905944</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1303302368508592</v>
+        <v>-0.1315508370548589</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.30814081145027</v>
+        <v>-1.309286949201633</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.374204989571521</v>
+        <v>-0.3738837789915211</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4495609648074566</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02860183803691628</v>
+        <v>0.02724983350473482</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301080018882636</v>
+        <v>-1.301798362543363</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3236610447604437</v>
+        <v>-0.3234887590857164</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.420837764711365</v>
       </c>
       <c r="E82" t="n">
-        <v>0.240654842616223</v>
+        <v>0.2392590366413143</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28943759540573</v>
+        <v>-1.29003183497873</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2877146607622715</v>
+        <v>-0.2876051571554534</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.38023455456216</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4230513503729922</v>
+        <v>0.4217081061293562</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230543635562746</v>
+        <v>-1.231200657203654</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.270004277419549</v>
+        <v>-0.2698203113600945</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3272479129644442</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6290086541727551</v>
+        <v>0.6279267585373917</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152690951259312</v>
+        <v>-1.153407834871948</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2453980869434647</v>
+        <v>-0.2452988036732829</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2631014142982768</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7425843351164518</v>
+        <v>0.7420265967457247</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064149254882336</v>
+        <v>-1.065101206237608</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2096546496299288</v>
+        <v>-0.2095772670811107</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.19038523257481</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9681296441038458</v>
+        <v>0.967294496595846</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9984543910318988</v>
+        <v>-0.9990807516628987</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1808289201711184</v>
+        <v>-0.1806347337750275</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1142272911678346</v>
       </c>
       <c r="E87" t="n">
-        <v>1.111131134271717</v>
+        <v>1.110393809985808</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9430076047315501</v>
+        <v>-0.9434938007458227</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1509446558463992</v>
+        <v>-0.1507971909892174</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04105087415409737</v>
       </c>
       <c r="E88" t="n">
-        <v>1.212960728324053</v>
+        <v>1.21269937971578</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8886237334413829</v>
+        <v>-0.8889960457045646</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1146098990560453</v>
+        <v>-0.1143675310729544</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02163852437532721</v>
       </c>
       <c r="E89" t="n">
-        <v>1.33498862766602</v>
+        <v>1.334660116845566</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7930869466608631</v>
+        <v>-0.7930066440158631</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1130418074064093</v>
+        <v>-0.112758558076773</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06723683191915869</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371491289986828</v>
+        <v>1.37170299696001</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6930167105580718</v>
+        <v>-0.6929057469031628</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07851897029687314</v>
+        <v>-0.07828974274660047</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0908518080765888</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41575994810318</v>
+        <v>1.415980415364907</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5880261123889181</v>
+        <v>-0.587628979308191</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01658957047288977</v>
+        <v>-0.01664067215607157</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09147622375897904</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438970332604356</v>
+        <v>1.439328044386628</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4607245193425887</v>
+        <v>-0.4600280764032252</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02056090128016143</v>
+        <v>-0.02028203209479787</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0722292556239834</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409905155258636</v>
+        <v>1.410471653917909</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3523947911895269</v>
+        <v>-0.3514676606517999</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.014027186073345</v>
+        <v>-0.01386658078334504</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03812653302666977</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410337329493545</v>
+        <v>1.410754903247545</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2128171137948371</v>
+        <v>-0.2121600921539282</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01652678840498069</v>
+        <v>-0.01645524604852617</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.005334839329662081</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335435402381838</v>
+        <v>1.336036942195292</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09668050849968644</v>
+        <v>-0.0960687483495957</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01897674910152549</v>
+        <v>-0.01897382900534367</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05284544931723983</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257454233846405</v>
+        <v>1.258000291832404</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03065904579700664</v>
+        <v>0.0310897599838247</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03380353746470333</v>
+        <v>-0.03377871664715788</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09925708437895334</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174691407813245</v>
+        <v>1.175479833782336</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1319630225366158</v>
+        <v>0.1321937101349794</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05236658889251652</v>
+        <v>-0.05243521115278924</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1446656676883075</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076199483696726</v>
+        <v>1.077075512551271</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1930645750930539</v>
+        <v>0.1931550980746903</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05750887826869696</v>
+        <v>-0.0575497596152424</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1888296638286485</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9386279123789446</v>
+        <v>0.9393856773381263</v>
       </c>
       <c r="F99" t="n">
-        <v>0.194599085636599</v>
+        <v>0.1947932720326898</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05115036883278958</v>
+        <v>-0.05142777797006223</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2353359076617669</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8438576508461519</v>
+        <v>0.8447716409510607</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113867185858672</v>
+        <v>0.2114013190667763</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04505904819751849</v>
+        <v>-0.04523425396842753</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2812888523227927</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6902708120191932</v>
+        <v>0.6913731483278293</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1975177217703255</v>
+        <v>0.1978068112923254</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04931654843060825</v>
+        <v>-0.04953993578851729</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3307678818903011</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6310746222213909</v>
+        <v>0.632079135307936</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2068897704658684</v>
+        <v>0.2069583927261411</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08136314397796328</v>
+        <v>-0.08157339090305414</v>
       </c>
     </row>
   </sheetData>
